--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R2caac4820f9e478d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Ra3da56580294487a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Ra3da56580294487a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R0854460a7ade4db9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R0854460a7ade4db9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R84dcc520fde64c2c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R84dcc520fde64c2c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rbc14eb69bb4f4a3e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rbc14eb69bb4f4a3e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R0796182a01664101"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R0796182a01664101"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Ra2f8fb0c573c48fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Ra2f8fb0c573c48fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R1d87e48e1a0f4481"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R1d87e48e1a0f4481"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R60cae7d5bc254cf3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R60cae7d5bc254cf3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rd361ad122c984b8d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rd361ad122c984b8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8cfd505113b04248"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8cfd505113b04248"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R07bc851d99634787"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R07bc851d99634787"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R43608ac788604972"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/026_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R43608ac788604972"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rf2b842fb33df45e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
